--- a/data/case1/18/Q1_11.xlsx
+++ b/data/case1/18/Q1_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.21958201163371172</v>
+        <v>0.21823451781839509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999828583839</v>
+        <v>-0.0059999999647892821</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999847015744</v>
+        <v>-0.0039999999683786314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999722186743</v>
+        <v>-0.0079999999425925949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999842091896</v>
+        <v>-0.0029999999673915312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999821340708</v>
+        <v>-0.0019999999632105414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999596880329</v>
+        <v>-0.0099999999170203857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.009999999958672845</v>
+        <v>-0.0099999999148776553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999793407497</v>
+        <v>-0.001999999957349452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999782402966</v>
+        <v>-0.0019999999550872616</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999753940187</v>
+        <v>-0.0029999999492913432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999738527521</v>
+        <v>-0.0034999999460736397</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999729770082</v>
+        <v>-0.0034999999442595353</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999604511984</v>
+        <v>-0.0079999999184696691</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997956157216</v>
+        <v>-0.00099999995781185902</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0089351255067078306</v>
+        <v>0.0093019488283623275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.001999999976390221</v>
+        <v>-0.0019999999513000688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999707971412</v>
+        <v>-0.0039999999397943853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999880317993</v>
+        <v>-0.0039999999753352888</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999836215494</v>
+        <v>-0.0039999999665063513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.042477611668310544</v>
+        <v>-0.041691755896393623</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999826525467</v>
+        <v>-0.0039999999645248252</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999810630413</v>
+        <v>-0.0049999999609067203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999938256074</v>
+        <v>-0.019999999872805319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999937459378</v>
+        <v>-0.019999999871133767</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999806958328</v>
+        <v>-0.0024999999603192435</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999801149642</v>
+        <v>-0.0024999999591401867</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999788788969</v>
+        <v>-0.0019999999565154525</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999633560961</v>
+        <v>-0.0069999999245426991</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999817489158</v>
+        <v>-0.059999999624459122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999634511312</v>
+        <v>-0.0069999999247585265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.033555301850524799</v>
+        <v>0.033642279025384525</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999719970702</v>
+        <v>-0.0039999999423798727</v>
       </c>
     </row>
   </sheetData>
